--- a/ita_install_package/ITA/ita-contents/ita-root/libs/messages/ja_JP_UTF-8_dumpTemplate.xlsx
+++ b/ita_install_package/ITA/ita-contents/ita-root/libs/messages/ja_JP_UTF-8_dumpTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="390" windowWidth="18075" windowHeight="10470"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,18 +518,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -547,45 +586,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -627,6 +627,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FFE65000"/>
     </mruColors>
   </colors>
@@ -634,12 +635,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -681,7 +685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,24 +931,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9" style="21"/>
+    <col min="1" max="1" width="10.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="13.375" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -956,41 +958,41 @@
       <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -999,8 +1001,8 @@
         <v>9</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1009,16 +1011,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1027,13 +1029,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F14" s="16"/>
+      <c r="F14" s="6"/>
     </row>
   </sheetData>
   <protectedRanges>
